--- a/Arquivados/ARQUIVO DUDA.xlsx
+++ b/Arquivados/ARQUIVO DUDA.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A166F4-4632-44B4-8A1B-AA9D4C34196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2549AEC-250A-4889-984C-D80BCC4C2B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
-    <sheet name="RELATORIO" sheetId="5" r:id="rId5"/>
+    <sheet name="Maio" sheetId="7" r:id="rId5"/>
+    <sheet name="RELATORIO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -67,7 +68,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +90,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +217,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1988,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="A28:F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,6 +2663,676 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB266587-B8C5-4A20-A2C9-C3920D48EE88}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>45047</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>45048</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>45049</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>45050</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>45051</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>45052</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>45053</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>45054</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>45055</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>45056</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="27">
+        <v>10</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="26">
+        <v>54</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>45057</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>45058</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>45059</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>45060</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>45061</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>45062</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>45063</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>45064</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>45065</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>45066</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>45067</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>45068</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>45069</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>45070</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>45071</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>45072</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>45073</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>45074</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>45075</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>45076</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <f>SUM(B2:B31)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <f>SUM(C2:C31)</f>
+        <v>10</v>
+      </c>
+      <c r="D33" s="7">
+        <f>SUM(D4:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
